--- a/Documentation/Working_Documents/Device_Name_BOM.xlsx
+++ b/Documentation/Working_Documents/Device_Name_BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylerf\Documents\oneDrive_Sync\Neil Squire\MMC-R&amp;D - 20-08 RD Documentation\Deliverables\Templates\Template Package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 24-04 Documentation Review/OpenAT_Documentation_Templates/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ABD8E5A-E1A5-4F56-99CA-6BE7866018C1}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{379FCA6B-FC47-49B8-8D59-188627E1E6CD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,95 +36,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
-  <si>
-    <t>Device: xxxxx</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Total Print time (hr)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Total filament (g)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Version: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>V1.0</t>
-    </r>
-  </si>
-  <si>
-    <t>Date Created: 4/20/2021</t>
-  </si>
-  <si>
-    <t>Commercial Parts:</t>
-  </si>
-  <si>
-    <t>Part type (Electrical. Mechanical, Sanitization, ect)</t>
-  </si>
-  <si>
-    <t>Part Name</t>
-  </si>
-  <si>
-    <t>Quantity Needed</t>
-  </si>
-  <si>
-    <t>Pkg Quantity</t>
-  </si>
-  <si>
-    <t>Price per package</t>
-  </si>
-  <si>
-    <t>Price per Unit</t>
-  </si>
-  <si>
-    <t>Price for qty needed</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
-    <t>3D Printed Parts                                                                                     ESTIMATED PRICING USING 1KG ROLL COST:</t>
-  </si>
-  <si>
     <t>Part</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>TOTAL Mass (g)</t>
-  </si>
-  <si>
-    <t>Estimated Price</t>
-  </si>
-  <si>
-    <t>Print Time (Min)</t>
-  </si>
-  <si>
-    <t>Total Print Cost:</t>
-  </si>
-  <si>
-    <t>Tools for Assembly</t>
-  </si>
-  <si>
-    <t>Alternatives (if there are other sources for some parts link them below)</t>
-  </si>
-  <si>
-    <t>Part and description</t>
+    <t>Commercial Parts</t>
+  </si>
+  <si>
+    <t>&lt;DeviceName&gt;</t>
+  </si>
+  <si>
+    <t>&lt;YYYY-mmm-DD&gt;</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Last Updated:</t>
+  </si>
+  <si>
+    <t>Version:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V&lt;X.Y.Z&gt;</t>
+  </si>
+  <si>
+    <t>Device:</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>QTY / PKG</t>
+  </si>
+  <si>
+    <t>PKGs</t>
+  </si>
+  <si>
+    <t>$/ PKG</t>
+  </si>
+  <si>
+    <t>QTY / Device</t>
+  </si>
+  <si>
+    <t>$ / Device</t>
+  </si>
+  <si>
+    <t>Filament</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Filament Type</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>PetG</t>
+  </si>
+  <si>
+    <t>$ / kg</t>
+  </si>
+  <si>
+    <t>3D Printed Parts</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Total Mass</t>
+  </si>
+  <si>
+    <t>Custom PCB</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Mass (g) / Part</t>
+  </si>
+  <si>
+    <t>Build Cost</t>
+  </si>
+  <si>
+    <t>Total Estimated Cost</t>
+  </si>
+  <si>
+    <t>Alternatives</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Tool</t>
   </si>
 </sst>
 </file>
@@ -132,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +171,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,46 +196,20 @@
       <name val="Roboto Black"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,41 +223,83 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -284,6 +317,135 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -297,47 +459,6 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -346,123 +467,124 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="14" borderId="1" xfId="13" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="13" borderId="2" xfId="12" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="12" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="13" borderId="6" xfId="12" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="13" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="14" borderId="10" xfId="13" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="12" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="13" borderId="8" xfId="12" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="11" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="12" borderId="10" xfId="11" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="10" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="12" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="15" borderId="8" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
-    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Accent5" xfId="4" builtinId="45"/>
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+  <cellStyles count="14">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="7" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="10" builtinId="42"/>
+    <cellStyle name="20% - Accent6" xfId="12" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="8" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="11" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="13" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="1" builtinId="33"/>
+    <cellStyle name="Accent4" xfId="9" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -740,268 +862,1080 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EE8AD1-7DB5-46E4-9BCF-A08DFBDA7B00}">
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="35.25" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="I5" s="64">
+        <f>SUM(H21:H25)</f>
+        <v>103</v>
+      </c>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61">
+        <f>K6+K14+K19</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="L5" s="62">
+        <f>L6+L14+L19</f>
+        <v>101.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="66">
+        <f>SUM(K8:K13)</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="L6" s="7">
+        <f>SUM(L8:L19)</f>
+        <v>69.47</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21">
+        <v>6</v>
+      </c>
+      <c r="H8" s="21">
+        <v>5</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" ref="I8:I12" si="0">IF(G8&gt;0,CEILING(G8/H8,1),0)</f>
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18">
-      <c r="A2" s="14" t="s">
+      <c r="J8" s="22">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="K8" s="22">
+        <f t="shared" ref="K8:K12" si="1">IF(G8&gt;0,J8/H8*G8,0)</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="L8" s="22">
+        <f t="shared" ref="L8:L12" si="2">I8*J8</f>
+        <v>8</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="e">
-        <f>SUM(G5:G12)+E19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D2" s="24">
-        <f>SUM(F14:F18)/60</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <f>SUM(D14:D18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.149999999999999" thickBot="1">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="E5" s="9"/>
-      <c r="F5" s="17" t="e">
-        <f>E5/D5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="17" t="e">
-        <f>F5*C5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="E6" s="9"/>
-      <c r="F6" s="17" t="e">
-        <f>E6/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="17" t="e">
-        <f>F6*C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="E7" s="9"/>
-      <c r="F7" s="17" t="e">
-        <f t="shared" ref="F7" si="0">E7/D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="17" t="e">
-        <f>F7*C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
-      <c r="B11" s="27"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="28">
-        <v>25</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="E14" s="17">
-        <f>(D14/1000)*$B$12</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="E15" s="17">
-        <f t="shared" ref="E15:E18" si="1">(D15/1000)*$B$12</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="E16" s="17">
+      <c r="K9" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="E17" s="17">
+      <c r="L9" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>6</v>
+      </c>
+      <c r="K10" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="E18" s="17">
+      <c r="L10" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>7</v>
+      </c>
+      <c r="K11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1">
-      <c r="A19" s="12"/>
-      <c r="D19" s="20" t="s">
+      <c r="L11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>8</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="10">
+        <f>SUM(K16:K18)</f>
+        <v>5.8</v>
+      </c>
+      <c r="L14" s="10">
+        <f>SUM(L16:L18)</f>
+        <v>29</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23">
+        <v>1</v>
+      </c>
+      <c r="H16" s="23">
+        <v>5</v>
+      </c>
+      <c r="I16" s="23">
+        <f t="shared" ref="I16:I17" si="3">IF(G16&gt;0,CEILING(G16/H16,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="24">
+        <v>4</v>
+      </c>
+      <c r="K16" s="24">
+        <f t="shared" ref="K16" si="4">IF(G16&gt;0,J16/H16*G16,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="L16" s="24">
+        <f t="shared" ref="L16" si="5">I16*J16</f>
+        <v>4</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <v>5</v>
+      </c>
+      <c r="I17" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="24">
+        <v>25</v>
+      </c>
+      <c r="K17" s="24">
+        <f t="shared" ref="K17" si="6">IF(G17&gt;0,J17/H17*G17,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L17" s="24">
+        <f t="shared" ref="L17" si="7">I17*J17</f>
+        <v>25</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="13">
+        <f>SUM(I21:I27)</f>
+        <v>122</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="12">
+        <f>SUM(K21:K27)</f>
+        <v>3.47</v>
+      </c>
+      <c r="L19" s="12">
+        <f>SUM(L21:L27)</f>
+        <v>3.47</v>
+      </c>
+      <c r="M19" s="37"/>
+      <c r="N19" s="39"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="21">
-        <f>SUM(E14:E18)</f>
+      <c r="G21" s="25">
+        <v>2</v>
+      </c>
+      <c r="H21" s="25">
+        <v>19</v>
+      </c>
+      <c r="I21" s="25">
+        <f>G21*H21</f>
+        <v>38</v>
+      </c>
+      <c r="J21" s="26">
+        <v>25</v>
+      </c>
+      <c r="K21" s="26">
+        <f>IF(G21&gt;0,(J21/1000)*G21*H21,0)</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="L21" s="26">
+        <f>K21</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18">
+        <v>84</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" ref="I22:I25" si="8">G22*H22</f>
+        <v>84</v>
+      </c>
+      <c r="J22" s="14">
+        <v>30</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" ref="K22:K27" si="9">IF(G22&gt;0,(J22/1000)*G22*H22,0)</f>
+        <v>2.52</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" ref="L22:L27" si="10">K22</f>
+        <v>2.52</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1">
-      <c r="A20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1"/>
-    <row r="27" spans="1:12" ht="15" thickBot="1">
-      <c r="A27" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1">
-      <c r="A28" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="30" t="s">
+      <c r="J23" s="14"/>
+      <c r="K23" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:14" s="72" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43"/>
+      <c r="B28" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="46"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="47"/>
+      <c r="B29" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="69"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="51"/>
+      <c r="B37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="I37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1019,8 +1953,8 @@
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
@@ -1028,10 +1962,10 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC44D19606E8540AF995795CBBBCE63" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7289f370a5204a7f65a57e64255ba54">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xmlns:ns3="715913e6-4bf0-458f-8160-f18e142d04ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfa4d2400c415f2e6245c833fda60061" ns2:_="" ns3:_="">
-    <xsd:import namespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
-    <xsd:import namespace="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c16a8de1b3ad07fcfe40131daee80152">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85720a748046338a72a4f25fe522aa39" ns2:_="" ns3:_="">
+    <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <xsd:import namespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1042,15 +1976,18 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1058,7 +1995,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1083,55 +2020,86 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="715913e6-4bf0-458f-8160-f18e142d04ff" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b05470fb-f248-421d-a4ae-c1bb0b45488d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="715913e6-4bf0-458f-8160-f18e142d04ff">
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{230263d0-9f1a-4e63-a49c-f06b563fb00a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="72c39c84-b0a3-45a2-a38c-ff46bb47f11f">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -1243,13 +2211,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A20C086-9FA0-4D88-9A77-4B621EE8056E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E754FF-A61B-4A88-B516-AC8192A9AA35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>